--- a/Waves.xlsx
+++ b/Waves.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Dropbox\Fontys\Documenten_Rick_en_Simon\Semester 4\Delta\Glow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\Git\Trees_of_Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -156,6 +156,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2364,7 +2365,7 @@
             <c:numRef>
               <c:f>Blad1!$S$4:$S$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2.5</c:v>
@@ -4725,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFB05A0-FD4C-402E-BEBC-F31801FDCA84}">
   <dimension ref="B1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,7 +4804,7 @@
       <c r="R4" s="2">
         <v>5</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="5">
         <f>R4*0.5</f>
         <v>2.5</v>
       </c>
@@ -4830,7 +4831,7 @@
       <c r="R5" s="2">
         <v>5</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="5">
         <f t="shared" ref="S5:S34" si="0">R5*0.5</f>
         <v>2.5</v>
       </c>
@@ -4857,7 +4858,7 @@
       <c r="R6" s="2">
         <v>10</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4884,7 +4885,7 @@
       <c r="R7" s="2">
         <v>15</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="5">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -4911,7 +4912,7 @@
       <c r="R8" s="2">
         <v>20</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4938,7 +4939,7 @@
       <c r="R9" s="2">
         <v>25</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="5">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
@@ -4965,7 +4966,7 @@
       <c r="R10" s="2">
         <v>30</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4992,7 +4993,7 @@
       <c r="R11" s="2">
         <v>35</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="5">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
@@ -5019,7 +5020,7 @@
       <c r="R12" s="2">
         <v>40</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -5046,7 +5047,7 @@
       <c r="R13" s="2">
         <v>45</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="5">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
@@ -5073,7 +5074,7 @@
       <c r="R14" s="2">
         <v>52</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -5100,7 +5101,7 @@
       <c r="R15" s="2">
         <v>59</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="5">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
@@ -5127,7 +5128,7 @@
       <c r="R16" s="2">
         <v>68</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -5154,7 +5155,7 @@
       <c r="R17" s="2">
         <v>76</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -5181,7 +5182,7 @@
       <c r="R18" s="2">
         <v>85</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="5">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
@@ -5208,7 +5209,7 @@
       <c r="R19" s="2">
         <v>95</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="5">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
@@ -5235,7 +5236,7 @@
       <c r="R20" s="2">
         <v>100</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -5262,7 +5263,7 @@
       <c r="R21" s="2">
         <v>95</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="5">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
@@ -5289,7 +5290,7 @@
       <c r="R22" s="2">
         <v>60</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -5316,7 +5317,7 @@
       <c r="R23" s="2">
         <v>40</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -5343,7 +5344,7 @@
       <c r="R24" s="2">
         <v>30</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5370,7 +5371,7 @@
       <c r="R25" s="2">
         <v>25</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="5">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
@@ -5397,7 +5398,7 @@
       <c r="R26" s="2">
         <v>20</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5424,7 +5425,7 @@
       <c r="R27" s="2">
         <v>19</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="5">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -5451,7 +5452,7 @@
       <c r="R28" s="2">
         <v>18</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -5478,7 +5479,7 @@
       <c r="R29" s="2">
         <v>17</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="5">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
@@ -5505,7 +5506,7 @@
       <c r="R30" s="2">
         <v>16</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5532,7 +5533,7 @@
       <c r="R31" s="2">
         <v>15</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="5">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -5559,7 +5560,7 @@
       <c r="R32" s="2">
         <v>14</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5586,7 +5587,7 @@
       <c r="R33" s="2">
         <v>13</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="5">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
@@ -5613,7 +5614,7 @@
       <c r="R34" s="2">
         <v>10</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6080,7 +6081,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
